--- a/Input/UpdateStatusWithRespectToName.xlsx
+++ b/Input/UpdateStatusWithRespectToName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -28,13 +28,13 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Manoj</t>
+    <t>Rahul</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Nezam</t>
+    <t>Sudhanshu</t>
   </si>
   <si>
     <t>ME</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Found</t>
-  </si>
-  <si>
-    <t>Not Found</t>
   </si>
 </sst>
 </file>
@@ -401,14 +398,14 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,9 +432,6 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -449,9 +443,6 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -464,7 +455,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -476,9 +467,6 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
